--- a/m290_LB2_Selbstbewertung_Zwischenbericht_ME21.xlsx
+++ b/m290_LB2_Selbstbewertung_Zwischenbericht_ME21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bzzch-my.sharepoint.com/personal/volkan_demir_bzz_ch/Documents/--- Latest Version ---/m290/exam/lb02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\LB02_290\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5669A5-93D4-324C-AE3F-7176312F786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555DEEA-37B9-440F-A128-3149DCEF152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2_Präsi_GR1" sheetId="5" r:id="rId1"/>
@@ -1204,10 +1204,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Gut" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1487,47 +1487,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2463A80D-F342-4D8B-860B-86AC9B70321F}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="64.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="67.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="64.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="65" t="s">
         <v>97</v>
       </c>
       <c r="C1" s="66"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="68"/>
     </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="69" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="70"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>52</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>11.842105263157896</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="74" t="s">
         <v>2</v>
       </c>
@@ -1569,12 +1569,12 @@
         <v>1.5921052631578947</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36"/>
       <c r="D8" s="80"/>
       <c r="F8" s="80"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="84">
         <v>1</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39">
         <f>A10+1</f>
         <v>2</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
         <f>A11+1</f>
         <v>3</v>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39">
         <f>A12+1</f>
         <v>4</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39">
         <f>A13+1</f>
         <v>5</v>
@@ -1690,10 +1690,10 @@
       </c>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39">
         <f>A14+1</f>
         <v>6</v>
@@ -1734,7 +1734,7 @@
       <c r="F17" s="83"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39">
         <f>A17+1</f>
         <v>7</v>
@@ -1751,7 +1751,7 @@
       <c r="F18" s="83"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39">
         <f>A18+1</f>
         <v>8</v>
@@ -1768,10 +1768,10 @@
       <c r="F19" s="83"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="H21" s="36"/>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39">
         <f>A19+1</f>
         <v>9</v>
@@ -1814,7 +1814,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39">
         <f>A22+1</f>
         <v>10</v>
@@ -1832,7 +1832,7 @@
       <c r="F23" s="83"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39">
         <f>A23+1</f>
         <v>11</v>
@@ -1850,7 +1850,7 @@
       <c r="F24" s="82"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="48">
         <f>A24+1</f>
         <v>12</v>
@@ -1868,7 +1868,7 @@
       <c r="F25" s="104"/>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52"/>
       <c r="B26" s="53" t="s">
         <v>103</v>
@@ -1881,7 +1881,7 @@
       <c r="F26" s="105"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="48">
         <f>A25+1</f>
         <v>13</v>
@@ -1899,7 +1899,7 @@
       <c r="F27" s="104"/>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="52"/>
       <c r="B28" s="53" t="s">
         <v>103</v>
@@ -1912,7 +1912,7 @@
       <c r="F28" s="105"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39">
         <f>A27+1</f>
         <v>14</v>
@@ -1930,7 +1930,7 @@
       <c r="F29" s="83"/>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39">
         <f t="shared" ref="A30:A35" si="0">A29+1</f>
         <v>15</v>
@@ -1948,7 +1948,7 @@
       <c r="F30" s="83"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="52">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1966,7 +1966,7 @@
       <c r="F31" s="104"/>
       <c r="G31" s="51"/>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="48">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1984,7 +1984,7 @@
       <c r="F32" s="104"/>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2000,7 +2000,7 @@
       <c r="F33" s="105"/>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="48">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2018,7 +2018,7 @@
       <c r="F34" s="83"/>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="7" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2037,11 +2037,11 @@
       <c r="G35" s="42"/>
       <c r="H35" s="36"/>
     </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="94" t="str">
         <f>A21</f>
         <v>#</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="56">
         <f>A35+1</f>
         <v>21</v>
@@ -2080,7 +2080,7 @@
       <c r="F38" s="101"/>
       <c r="G38" s="59"/>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="56">
         <f>A38+1</f>
         <v>22</v>
@@ -2100,11 +2100,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="36"/>
     </row>
-    <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="89" t="str">
         <f>A37</f>
         <v>#</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G41" s="63"/>
     </row>
-    <row r="42" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="60">
         <f>A39+1</f>
         <v>23</v>
@@ -2143,7 +2143,7 @@
       <c r="F42" s="88"/>
       <c r="G42" s="63"/>
     </row>
-    <row r="43" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="60">
         <f>A42+1</f>
         <v>24</v>
@@ -2162,11 +2162,11 @@
       <c r="F43" s="88"/>
       <c r="G43" s="63"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
     </row>
   </sheetData>
@@ -2183,30 +2183,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.77734375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="e">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="str">
         <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>#VALUE!</v>
+        <v>LB2_Präsi_GR2</v>
       </c>
       <c r="C1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f>A3+1</f>
         <v>2</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <f>A4+1</f>
         <v>3</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <f>A5+1</f>
         <v>4</v>
@@ -2348,7 +2348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>A6+1</f>
         <v>5</v>
@@ -2378,11 +2378,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
@@ -2397,7 +2397,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>A7+1</f>
         <v>6</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <f>A10+1</f>
         <v>7</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -2483,7 +2483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -2511,11 +2511,11 @@
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -2530,7 +2530,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <f>A13+1</f>
         <v>9</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <f>A16+1</f>
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <f>A17+1</f>
         <v>11</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <f>A18+1</f>
         <v>12</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <f>A19+1</f>
         <v>13</v>
@@ -2666,12 +2666,12 @@
       <c r="I20" s="35"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>1</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>2</v>
@@ -2762,30 +2762,30 @@
       <selection activeCell="H2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="e">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="str">
         <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>#VALUE!</v>
+        <v>LB2_Präsi_GR3</v>
       </c>
       <c r="C1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f>A3+1</f>
         <v>2</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <f>A4+1</f>
         <v>3</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <f>A5+1</f>
         <v>4</v>
@@ -2927,7 +2927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>A6+1</f>
         <v>5</v>
@@ -2957,11 +2957,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
@@ -2976,7 +2976,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>A7+1</f>
         <v>6</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <f>A10+1</f>
         <v>7</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -3062,7 +3062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -3090,11 +3090,11 @@
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -3109,7 +3109,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <f>A13+1</f>
         <v>9</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <f>A16+1</f>
         <v>10</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <f>A17+1</f>
         <v>11</v>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <f>A18+1</f>
         <v>12</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <f>A19+1</f>
         <v>13</v>
@@ -3245,12 +3245,12 @@
       <c r="I20" s="35"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>1</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>2</v>
@@ -3341,25 +3341,25 @@
       <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="48.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="48.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="e">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="str">
         <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>#VALUE!</v>
+        <v>LB2_Präsi_GR4</v>
       </c>
       <c r="C1" s="6"/>
       <c r="F1" s="6"/>
@@ -3367,7 +3367,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f>A3+1</f>
         <v>2</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <f>A4+1</f>
         <v>3</v>
@@ -3497,7 +3497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <f>A5+1</f>
         <v>4</v>
@@ -3531,7 +3531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>A6+1</f>
         <v>5</v>
@@ -3568,7 +3568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3576,7 +3576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>A7+1</f>
         <v>6</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <f>A10+1</f>
         <v>7</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -3693,7 +3693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -3725,12 +3725,12 @@
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -3747,7 +3747,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <f>A13+1</f>
         <v>9</v>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <f>A16+1</f>
         <v>10</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <f>A17+1</f>
         <v>11</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <f>A18+1</f>
         <v>12</v>
@@ -3868,7 +3868,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <f>A19+1</f>
         <v>13</v>
@@ -3897,14 +3897,14 @@
       <c r="J20" s="5"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="31"/>
       <c r="J21" s="5"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>1</v>
@@ -3933,7 +3933,7 @@
       <c r="J22" s="5"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
@@ -3959,7 +3959,7 @@
       <c r="J23" s="5"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>2</v>
@@ -4001,30 +4001,30 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="e">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="str">
         <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>#VALUE!</v>
+        <v>LB2_Präsi_GR5</v>
       </c>
       <c r="C1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f>A3+1</f>
         <v>2</v>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <f>A4+1</f>
         <v>3</v>
@@ -4130,7 +4130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <f>A5+1</f>
         <v>4</v>
@@ -4160,7 +4160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>A6+1</f>
         <v>5</v>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
@@ -4207,7 +4207,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>A7+1</f>
         <v>6</v>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <f>A10+1</f>
         <v>7</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -4293,7 +4293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -4323,11 +4323,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -4342,7 +4342,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <f>A13+1</f>
         <v>9</v>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <f>A16+1</f>
         <v>10</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <f>A17+1</f>
         <v>11</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <f>A18+1</f>
         <v>12</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <f>A19+1</f>
         <v>13</v>
@@ -4478,12 +4478,12 @@
       <c r="I20" s="35"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>1</v>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>2</v>
@@ -4574,30 +4574,30 @@
       <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="e">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="str">
         <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>#VALUE!</v>
+        <v>LB2_Präsi_GR6</v>
       </c>
       <c r="C1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f>A3+1</f>
         <v>2</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <f>A4+1</f>
         <v>3</v>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <f>A5+1</f>
         <v>4</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>A6+1</f>
         <v>5</v>
@@ -4745,11 +4745,11 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
@@ -4764,7 +4764,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>A7+1</f>
         <v>6</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <f>A10+1</f>
         <v>7</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f>A11+1</f>
         <v>8</v>
@@ -4868,11 +4868,11 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -4887,7 +4887,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <f>A13+1</f>
         <v>9</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <f>A16+1</f>
         <v>10</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <f>A17+1</f>
         <v>11</v>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <f>A18+1</f>
         <v>12</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <f>A19+1</f>
         <v>13</v>
@@ -5023,13 +5023,13 @@
       <c r="I20" s="35"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="31"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>1</v>
@@ -5057,7 +5057,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
@@ -5082,7 +5082,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>2</v>
@@ -5116,6 +5116,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010063EF91E59A045E49BE546A552D95CD85" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f78c944d7c39ed19649f9d84ee397d80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10627edd4f09c1f414843cf0643fb7ba">
     <xsd:element name="properties">
@@ -5229,29 +5244,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A76541-6DC5-48BE-BF4C-9C21B2503B52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E6030D-E052-4FE6-AE55-F589EAA86925}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D5171-79D9-4E02-A090-E7DD7220D65C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D5171-79D9-4E02-A090-E7DD7220D65C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E6030D-E052-4FE6-AE55-F589EAA86925}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A76541-6DC5-48BE-BF4C-9C21B2503B52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>